--- a/2017/03_DetailDesign/20171011_Cong viec/OOF2115_Chon cong viec.xlsx
+++ b/2017/03_DetailDesign/20171011_Cong viec/OOF2115_Chon cong viec.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_SVN\SVN_ERP90\10_DOCUMENT\13_DETAIL_DESIGN\2.PROJECTS\09.KIMYEN\20170921_Phrase 3_Quan ly cong viec\20171011_Cong viec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\ERP90\10_DOCUMENT\13_DETAIL_DESIGN\2.PROJECTS\09.KIMYEN\20170921_Phrase 3_Quan ly cong viec\20171011_Cong viec\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{47466F8C-137F-4982-BC4C-93672600F30D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -94,17 +95,17 @@
     <definedName name="項目No">#REF!</definedName>
     <definedName name="項目名">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -132,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -146,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -211,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -235,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -261,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -287,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -311,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -340,12 +341,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -373,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -387,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -401,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -439,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -453,7 +454,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -472,13 +473,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Le Thi Thu Hien</author>
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -492,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="1" shapeId="0">
+    <comment ref="E4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -505,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -518,7 +519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="1" shapeId="0">
+    <comment ref="G4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -531,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1" shapeId="0">
+    <comment ref="H4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -557,7 +558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="1" shapeId="0">
+    <comment ref="I4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -574,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="1" shapeId="0">
+    <comment ref="J4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -587,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -601,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="1" shapeId="0">
+    <comment ref="L4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -693,7 +694,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="1" shapeId="0">
+    <comment ref="M4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -728,7 +729,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -744,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="1" shapeId="0">
+    <comment ref="O4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -763,12 +764,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -781,10 +782,10 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text/>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -797,7 +798,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -819,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -837,12 +838,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>binhminh</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -855,7 +856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -868,7 +869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -886,13 +887,13 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
     <author>Le Thi Thu Hien</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -909,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -924,7 +925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -942,7 +943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -956,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -970,7 +971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -984,7 +985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="1" shapeId="0">
+    <comment ref="P4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1013,13 +1014,13 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
     <author>binhminh</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1047,7 +1048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1061,7 +1062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1074,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1088,7 +1089,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1102,7 +1103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1126,7 +1127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1150,7 +1151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="1" shapeId="0">
+    <comment ref="A5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1163,7 +1164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1" shapeId="0">
+    <comment ref="A8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1176,7 +1177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="1" shapeId="0">
+    <comment ref="B9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1189,7 +1190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="1" shapeId="0">
+    <comment ref="B12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1202,7 +1203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="1" shapeId="0">
+    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1216,7 +1217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="1" shapeId="0">
+    <comment ref="A24" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1236,13 +1237,13 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>vinhphong</author>
     <author>binhminh</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1256,7 +1257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1270,7 +1271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1284,7 +1285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1297,7 +1298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1311,7 +1312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1325,7 +1326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1349,7 +1350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1373,7 +1374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="1" shapeId="0">
+    <comment ref="A5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1386,7 +1387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1" shapeId="0">
+    <comment ref="A8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -2314,9 +2315,6 @@
     </r>
   </si>
   <si>
-    <t>ASOFT-TM</t>
-  </si>
-  <si>
     <t>Chon công việc</t>
   </si>
   <si>
@@ -2331,62 +2329,6 @@
   <si>
     <t>Sử dụng màn hình này để:
 Cho phép người dùng chọn công việc cha hoặc công việc trước cho công việc hiện tại tham chiếu</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Login
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>TH1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: Thêm công việc
-Login TM-&gt; Nghiệp vụ-&gt; Công việc
--&gt; Thêm (Dạng Kanban/Dạng danh sách/Dạng lịch/Dạng Gantt)
--&gt; TMF2021-Cập nhât công việc -&gt; button [Công việc cha/Công việc trước]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>TH2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Xem/sửa công việc
-Login TM-&gt; Nghiệp vụ-&gt; Công việc
-    - Dạng Kanban: Chọn vào button [Sửa] 
-      -&gt; Cập nhật công việc_TMF2021
-      -&gt; button [Công việc cha/Công việc trước]
-    - Dạng danh sách: Chọn vào link [Mã công việc] -&gt; Xem chi tiết công việc_TMF2022 -&gt; chọn button [Sửa] -&gt; Cập nhật công việc_TMF2021
- -&gt; button [Công việc cha/Công việc trước]
-    - Dạng lịch: Chọn vào nhóm link [Công việc] -&gt; Cập nhật công việc_TMF2021 -&gt; button [Công việc cha/Công việc trước]
-    - Dạng Gantt: Chọn vào link [Công việc] -&gt; Cập nhật công việc_TMF2021 -&gt; button [Công việc cha/Công việc trước]</t>
-    </r>
   </si>
   <si>
     <t>Người thực hiện</t>
@@ -2442,41 +2384,60 @@
     <t>StatusName</t>
   </si>
   <si>
-    <t>TMF2025</t>
-  </si>
-  <si>
-    <t>TMF2025_Chọn công việc</t>
-  </si>
-  <si>
-    <t>- Nhận tham số @DivisionID từ Form TMF2025</t>
-  </si>
-  <si>
-    <t>- Truyền tham số @WorkID được chọn đến Form TMF2025</t>
-  </si>
-  <si>
-    <t>Sự kiện các ControlName trên màn hình TMF2025_Chọn công việc:</t>
-  </si>
-  <si>
-    <t>+ Click button [Chọn]: đóng Form TMF2025 và Lấy giá trị được chọn truyền qua Form TMF2021 (Cập nhật công việc)</t>
-  </si>
-  <si>
-    <t>+ Click button [Đóng]: đóng Form TMF2025 và quay về Form TMF2021 (Cập nhật công việc)</t>
-  </si>
-  <si>
-    <t>Exec TMP2025 (
-  @DivisionID NVARCHAR(2000),
+    <t>OOF2115</t>
+  </si>
+  <si>
+    <t>OOF2115_Chọn công việc</t>
+  </si>
+  <si>
+    <t>- Nhận tham số @DivisionID từ Form OOF2115</t>
+  </si>
+  <si>
+    <t>- Truyền tham số @WorkID được chọn đến Form OOF2115</t>
+  </si>
+  <si>
+    <t>Sự kiện các ControlName trên màn hình OOF2115_Chọn công việc:</t>
+  </si>
+  <si>
+    <t>+ Click button [Chọn]: đóng Form OOF2115 và Lấy giá trị được chọn truyền qua Form OOF2111 (Cập nhật công việc)</t>
+  </si>
+  <si>
+    <t>+ Click button [Đóng]: đóng Form OOF2115 và quay về Form OOF2111 (Cập nhật công việc)</t>
+  </si>
+  <si>
+    <t>Exec OOP2115 (
+  @DivisionID NVARCHAR(2000), 
   @TxtSearch NVARCHAR(250),
-  @UserID VARCHAR(50),
+  @UserID VARCHAR(50),    
   @ConditionWorkID  NVARCHAR (MAX),
   @PageNumber INT,
   @PageSize INT
 )</t>
   </si>
+  <si>
+    <t>ASOFT-OO</t>
+  </si>
+  <si>
+    <t>Login
+TH1: Thêm công việc
+Login OO-&gt; Nghiệp vụ-&gt; Công việc
+-&gt; Thêm (Dạng Kanban/Dạng danh sách/Dạng lịch/Dạng Gantt)
+-&gt; OOF2111-Cập nhât công việc -&gt; button [Công việc cha/Công việc trước]
+TH2: Xem/sửa công việc
+Login OO-&gt; Nghiệp vụ-&gt; Công việc
+    - Dạng Kanban: Chọn vào button [Sửa] 
+      -&gt; Cập nhật công việc_OOF2111
+      -&gt; button [Công việc cha/Công việc trước]
+    - Dạng danh sách: Chọn vào link [Mã công việc] -&gt; Xem chi tiết công việc_TMF2022 -&gt; chọn button [Sửa] -&gt; Cập nhật công việc_OOF2111
+ -&gt; button [Công việc cha/Công việc trước]
+    - Dạng lịch: Chọn vào nhóm link [Công việc] -&gt; Cập nhật công việc_OOF2111 -&gt; button [Công việc cha/Công việc trước]
+    - Dạng Gantt: Chọn vào link [Công việc] -&gt; Cập nhật công việc_OOF2111 -&gt; button [Công việc cha/Công việc trước]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;Ver.&quot;0.00"/>
@@ -3000,7 +2961,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3340,75 +3301,111 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3418,42 +3415,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3514,21 +3475,21 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3583,9 +3544,6 @@
     <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3610,17 +3568,23 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Comma [0] 2" xfId="4"/>
-    <cellStyle name="Currency [0] 2" xfId="5"/>
-    <cellStyle name="IBM(401K)" xfId="6"/>
-    <cellStyle name="J401K" xfId="7"/>
+    <cellStyle name="Comma [0] 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Currency [0] 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="IBM(401K)" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="J401K" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="標準_299_アカウント管理(画面イメージ：)" xfId="8"/>
-    <cellStyle name="標準_ACC000_サービス選択画面" xfId="2"/>
-    <cellStyle name="標準_外部設計書（別紙②：HTML切り替え方式）" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_299_アカウント管理(画面イメージ：)" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準_ACC000_サービス選択画面" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準_外部設計書（別紙②：HTML切り替え方式）" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3658,7 +3622,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4"/>
+        <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3697,19 +3667,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1046929</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>104099</xdr:rowOff>
+      <xdr:colOff>856423</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>113605</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80DC9780-BCD9-41FA-8ECC-2D2F7197F1E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3722,8 +3698,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1352550" y="638175"/>
-          <a:ext cx="6571429" cy="5409524"/>
+          <a:off x="1114425" y="800100"/>
+          <a:ext cx="6619048" cy="5561905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3854,6 +3830,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3889,6 +3882,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4064,7 +4074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GM31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -4524,65 +4534,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="148"/>
-      <c r="B1" s="148"/>
-      <c r="C1" s="150" t="s">
+      <c r="A1" s="142"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="144" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="149" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149" t="s">
+      <c r="H1" s="143"/>
+      <c r="I1" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="149"/>
+      <c r="J1" s="143"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="148"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="149" t="s">
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="143" t="s">
         <v>151</v>
       </c>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="148"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="145" t="s">
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="146"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="140"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="98"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="147"/>
-      <c r="B13" s="147"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
+      <c r="A13" s="141"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
       <c r="K13" s="99"/>
       <c r="L13" s="99"/>
       <c r="M13" s="99"/>
@@ -4593,56 +4603,56 @@
       <c r="R13" s="99"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="141"/>
-      <c r="R14" s="141"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="137"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="141"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="141"/>
-      <c r="Q15" s="141"/>
-      <c r="R15" s="141"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="137"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="138" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
       <c r="K16" s="100"/>
       <c r="L16" s="100"/>
       <c r="M16" s="100"/>
@@ -4653,384 +4663,384 @@
       <c r="R16" s="100"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="141"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="141"/>
-      <c r="Q17" s="141"/>
-      <c r="R17" s="141"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="137"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="141"/>
-      <c r="R18" s="141"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="137"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="143"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="154"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="137"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="141"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="141"/>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="141"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="137"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="142"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="142"/>
-      <c r="R22" s="142"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="153"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="142"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="142"/>
-      <c r="O23" s="142"/>
-      <c r="P23" s="142"/>
-      <c r="Q23" s="142"/>
-      <c r="R23" s="142"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="153"/>
+      <c r="O23" s="153"/>
+      <c r="P23" s="153"/>
+      <c r="Q23" s="153"/>
+      <c r="R23" s="153"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="139"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="139"/>
-      <c r="N26" s="139"/>
-      <c r="O26" s="139"/>
-      <c r="P26" s="139"/>
-      <c r="Q26" s="139"/>
-      <c r="R26" s="139"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="155"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="140"/>
-      <c r="M28" s="140"/>
-      <c r="N28" s="140"/>
-      <c r="O28" s="140"/>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="140"/>
-      <c r="R28" s="140"/>
-      <c r="S28" s="138"/>
-      <c r="T28" s="138"/>
-      <c r="U28" s="138"/>
-      <c r="V28" s="138"/>
-      <c r="W28" s="138"/>
-      <c r="X28" s="138"/>
-      <c r="Y28" s="138"/>
-      <c r="Z28" s="138"/>
-      <c r="AA28" s="138"/>
-      <c r="AB28" s="138"/>
-      <c r="AC28" s="138"/>
-      <c r="AD28" s="138"/>
-      <c r="AE28" s="138"/>
-      <c r="AF28" s="138"/>
-      <c r="AG28" s="138"/>
-      <c r="AH28" s="138"/>
-      <c r="AI28" s="138"/>
-      <c r="AJ28" s="138"/>
-      <c r="AK28" s="138"/>
-      <c r="AL28" s="138"/>
-      <c r="AM28" s="138"/>
-      <c r="AN28" s="138"/>
-      <c r="AO28" s="138"/>
-      <c r="AP28" s="138"/>
-      <c r="AQ28" s="138"/>
-      <c r="AR28" s="138"/>
-      <c r="AS28" s="138"/>
-      <c r="AT28" s="138"/>
-      <c r="AU28" s="138"/>
-      <c r="AV28" s="138"/>
-      <c r="AW28" s="138"/>
-      <c r="AX28" s="138"/>
-      <c r="AY28" s="138"/>
-      <c r="AZ28" s="138"/>
-      <c r="BA28" s="138"/>
-      <c r="BB28" s="138"/>
-      <c r="BC28" s="138"/>
-      <c r="BD28" s="138"/>
-      <c r="BE28" s="138"/>
-      <c r="BF28" s="138"/>
-      <c r="BG28" s="138"/>
-      <c r="BH28" s="138"/>
-      <c r="BI28" s="138"/>
-      <c r="BJ28" s="138"/>
-      <c r="BK28" s="138"/>
-      <c r="BL28" s="138"/>
-      <c r="BM28" s="138"/>
-      <c r="BN28" s="138"/>
-      <c r="BO28" s="138"/>
-      <c r="BP28" s="138"/>
-      <c r="BQ28" s="138"/>
-      <c r="BR28" s="138"/>
-      <c r="BS28" s="138"/>
-      <c r="BT28" s="138"/>
-      <c r="BU28" s="138"/>
-      <c r="BV28" s="138"/>
-      <c r="BW28" s="138"/>
-      <c r="BX28" s="138"/>
-      <c r="BY28" s="138"/>
-      <c r="BZ28" s="138"/>
-      <c r="CA28" s="138"/>
-      <c r="CB28" s="138"/>
-      <c r="CC28" s="138"/>
-      <c r="CD28" s="138"/>
-      <c r="CE28" s="138"/>
-      <c r="CF28" s="138"/>
-      <c r="CG28" s="138"/>
-      <c r="CH28" s="138"/>
-      <c r="CI28" s="138"/>
-      <c r="CJ28" s="138"/>
-      <c r="CK28" s="138"/>
-      <c r="CL28" s="138"/>
-      <c r="CM28" s="138"/>
-      <c r="CN28" s="138"/>
-      <c r="CO28" s="138"/>
-      <c r="CP28" s="138"/>
-      <c r="CQ28" s="138"/>
-      <c r="CR28" s="138"/>
-      <c r="CS28" s="138"/>
-      <c r="CT28" s="138"/>
-      <c r="CU28" s="138"/>
-      <c r="CV28" s="138"/>
-      <c r="CW28" s="138"/>
-      <c r="CX28" s="138"/>
-      <c r="CY28" s="138"/>
-      <c r="CZ28" s="138"/>
-      <c r="DA28" s="138"/>
-      <c r="DB28" s="138"/>
-      <c r="DC28" s="138"/>
-      <c r="DD28" s="138"/>
-      <c r="DE28" s="138"/>
-      <c r="DF28" s="138"/>
-      <c r="DG28" s="138"/>
-      <c r="DH28" s="138"/>
-      <c r="DI28" s="138"/>
-      <c r="DJ28" s="138"/>
-      <c r="DK28" s="138"/>
-      <c r="DL28" s="138"/>
-      <c r="DM28" s="138"/>
-      <c r="DN28" s="138"/>
-      <c r="DO28" s="138"/>
-      <c r="DP28" s="138"/>
-      <c r="DQ28" s="138"/>
-      <c r="DR28" s="138"/>
-      <c r="DS28" s="138"/>
-      <c r="DT28" s="138"/>
-      <c r="DU28" s="138"/>
-      <c r="DV28" s="138"/>
-      <c r="DW28" s="138"/>
-      <c r="DX28" s="138"/>
-      <c r="DY28" s="138"/>
-      <c r="DZ28" s="138"/>
-      <c r="EA28" s="138"/>
-      <c r="EB28" s="138"/>
-      <c r="EC28" s="138"/>
-      <c r="ED28" s="138"/>
-      <c r="EE28" s="138"/>
-      <c r="EF28" s="138"/>
-      <c r="EG28" s="138"/>
-      <c r="EH28" s="138"/>
-      <c r="EI28" s="138"/>
-      <c r="EJ28" s="138"/>
-      <c r="EK28" s="138"/>
-      <c r="EL28" s="138"/>
-      <c r="EM28" s="138"/>
-      <c r="EN28" s="138"/>
-      <c r="EO28" s="138"/>
-      <c r="EP28" s="138"/>
-      <c r="EQ28" s="138"/>
-      <c r="ER28" s="138"/>
-      <c r="ES28" s="138"/>
-      <c r="ET28" s="138"/>
-      <c r="EU28" s="138"/>
-      <c r="EV28" s="138"/>
-      <c r="EW28" s="138"/>
-      <c r="EX28" s="138"/>
-      <c r="EY28" s="138"/>
-      <c r="EZ28" s="138"/>
-      <c r="FA28" s="138"/>
-      <c r="FB28" s="138"/>
-      <c r="FC28" s="138"/>
-      <c r="FD28" s="138"/>
-      <c r="FE28" s="138"/>
-      <c r="FF28" s="138"/>
-      <c r="FG28" s="138"/>
-      <c r="FH28" s="138"/>
-      <c r="FI28" s="138"/>
-      <c r="FJ28" s="138"/>
-      <c r="FK28" s="138"/>
-      <c r="FL28" s="138"/>
-      <c r="FM28" s="138"/>
-      <c r="FN28" s="138"/>
-      <c r="FO28" s="138"/>
-      <c r="FP28" s="138"/>
-      <c r="FQ28" s="138"/>
-      <c r="FR28" s="138"/>
-      <c r="FS28" s="138"/>
-      <c r="FT28" s="138"/>
-      <c r="FU28" s="138"/>
-      <c r="FV28" s="138"/>
-      <c r="FW28" s="138"/>
-      <c r="FX28" s="138"/>
-      <c r="FY28" s="138"/>
-      <c r="FZ28" s="138"/>
-      <c r="GA28" s="138"/>
-      <c r="GB28" s="138"/>
-      <c r="GC28" s="138"/>
-      <c r="GD28" s="138"/>
-      <c r="GE28" s="138"/>
-      <c r="GF28" s="138"/>
-      <c r="GG28" s="138"/>
-      <c r="GH28" s="138"/>
-      <c r="GI28" s="138"/>
-      <c r="GJ28" s="138"/>
-      <c r="GK28" s="138"/>
-      <c r="GL28" s="138"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="157"/>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="157"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="156"/>
+      <c r="W28" s="156"/>
+      <c r="X28" s="156"/>
+      <c r="Y28" s="156"/>
+      <c r="Z28" s="156"/>
+      <c r="AA28" s="156"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="156"/>
+      <c r="AD28" s="156"/>
+      <c r="AE28" s="156"/>
+      <c r="AF28" s="156"/>
+      <c r="AG28" s="156"/>
+      <c r="AH28" s="156"/>
+      <c r="AI28" s="156"/>
+      <c r="AJ28" s="156"/>
+      <c r="AK28" s="156"/>
+      <c r="AL28" s="156"/>
+      <c r="AM28" s="156"/>
+      <c r="AN28" s="156"/>
+      <c r="AO28" s="156"/>
+      <c r="AP28" s="156"/>
+      <c r="AQ28" s="156"/>
+      <c r="AR28" s="156"/>
+      <c r="AS28" s="156"/>
+      <c r="AT28" s="156"/>
+      <c r="AU28" s="156"/>
+      <c r="AV28" s="156"/>
+      <c r="AW28" s="156"/>
+      <c r="AX28" s="156"/>
+      <c r="AY28" s="156"/>
+      <c r="AZ28" s="156"/>
+      <c r="BA28" s="156"/>
+      <c r="BB28" s="156"/>
+      <c r="BC28" s="156"/>
+      <c r="BD28" s="156"/>
+      <c r="BE28" s="156"/>
+      <c r="BF28" s="156"/>
+      <c r="BG28" s="156"/>
+      <c r="BH28" s="156"/>
+      <c r="BI28" s="156"/>
+      <c r="BJ28" s="156"/>
+      <c r="BK28" s="156"/>
+      <c r="BL28" s="156"/>
+      <c r="BM28" s="156"/>
+      <c r="BN28" s="156"/>
+      <c r="BO28" s="156"/>
+      <c r="BP28" s="156"/>
+      <c r="BQ28" s="156"/>
+      <c r="BR28" s="156"/>
+      <c r="BS28" s="156"/>
+      <c r="BT28" s="156"/>
+      <c r="BU28" s="156"/>
+      <c r="BV28" s="156"/>
+      <c r="BW28" s="156"/>
+      <c r="BX28" s="156"/>
+      <c r="BY28" s="156"/>
+      <c r="BZ28" s="156"/>
+      <c r="CA28" s="156"/>
+      <c r="CB28" s="156"/>
+      <c r="CC28" s="156"/>
+      <c r="CD28" s="156"/>
+      <c r="CE28" s="156"/>
+      <c r="CF28" s="156"/>
+      <c r="CG28" s="156"/>
+      <c r="CH28" s="156"/>
+      <c r="CI28" s="156"/>
+      <c r="CJ28" s="156"/>
+      <c r="CK28" s="156"/>
+      <c r="CL28" s="156"/>
+      <c r="CM28" s="156"/>
+      <c r="CN28" s="156"/>
+      <c r="CO28" s="156"/>
+      <c r="CP28" s="156"/>
+      <c r="CQ28" s="156"/>
+      <c r="CR28" s="156"/>
+      <c r="CS28" s="156"/>
+      <c r="CT28" s="156"/>
+      <c r="CU28" s="156"/>
+      <c r="CV28" s="156"/>
+      <c r="CW28" s="156"/>
+      <c r="CX28" s="156"/>
+      <c r="CY28" s="156"/>
+      <c r="CZ28" s="156"/>
+      <c r="DA28" s="156"/>
+      <c r="DB28" s="156"/>
+      <c r="DC28" s="156"/>
+      <c r="DD28" s="156"/>
+      <c r="DE28" s="156"/>
+      <c r="DF28" s="156"/>
+      <c r="DG28" s="156"/>
+      <c r="DH28" s="156"/>
+      <c r="DI28" s="156"/>
+      <c r="DJ28" s="156"/>
+      <c r="DK28" s="156"/>
+      <c r="DL28" s="156"/>
+      <c r="DM28" s="156"/>
+      <c r="DN28" s="156"/>
+      <c r="DO28" s="156"/>
+      <c r="DP28" s="156"/>
+      <c r="DQ28" s="156"/>
+      <c r="DR28" s="156"/>
+      <c r="DS28" s="156"/>
+      <c r="DT28" s="156"/>
+      <c r="DU28" s="156"/>
+      <c r="DV28" s="156"/>
+      <c r="DW28" s="156"/>
+      <c r="DX28" s="156"/>
+      <c r="DY28" s="156"/>
+      <c r="DZ28" s="156"/>
+      <c r="EA28" s="156"/>
+      <c r="EB28" s="156"/>
+      <c r="EC28" s="156"/>
+      <c r="ED28" s="156"/>
+      <c r="EE28" s="156"/>
+      <c r="EF28" s="156"/>
+      <c r="EG28" s="156"/>
+      <c r="EH28" s="156"/>
+      <c r="EI28" s="156"/>
+      <c r="EJ28" s="156"/>
+      <c r="EK28" s="156"/>
+      <c r="EL28" s="156"/>
+      <c r="EM28" s="156"/>
+      <c r="EN28" s="156"/>
+      <c r="EO28" s="156"/>
+      <c r="EP28" s="156"/>
+      <c r="EQ28" s="156"/>
+      <c r="ER28" s="156"/>
+      <c r="ES28" s="156"/>
+      <c r="ET28" s="156"/>
+      <c r="EU28" s="156"/>
+      <c r="EV28" s="156"/>
+      <c r="EW28" s="156"/>
+      <c r="EX28" s="156"/>
+      <c r="EY28" s="156"/>
+      <c r="EZ28" s="156"/>
+      <c r="FA28" s="156"/>
+      <c r="FB28" s="156"/>
+      <c r="FC28" s="156"/>
+      <c r="FD28" s="156"/>
+      <c r="FE28" s="156"/>
+      <c r="FF28" s="156"/>
+      <c r="FG28" s="156"/>
+      <c r="FH28" s="156"/>
+      <c r="FI28" s="156"/>
+      <c r="FJ28" s="156"/>
+      <c r="FK28" s="156"/>
+      <c r="FL28" s="156"/>
+      <c r="FM28" s="156"/>
+      <c r="FN28" s="156"/>
+      <c r="FO28" s="156"/>
+      <c r="FP28" s="156"/>
+      <c r="FQ28" s="156"/>
+      <c r="FR28" s="156"/>
+      <c r="FS28" s="156"/>
+      <c r="FT28" s="156"/>
+      <c r="FU28" s="156"/>
+      <c r="FV28" s="156"/>
+      <c r="FW28" s="156"/>
+      <c r="FX28" s="156"/>
+      <c r="FY28" s="156"/>
+      <c r="FZ28" s="156"/>
+      <c r="GA28" s="156"/>
+      <c r="GB28" s="156"/>
+      <c r="GC28" s="156"/>
+      <c r="GD28" s="156"/>
+      <c r="GE28" s="156"/>
+      <c r="GF28" s="156"/>
+      <c r="GG28" s="156"/>
+      <c r="GH28" s="156"/>
+      <c r="GI28" s="156"/>
+      <c r="GJ28" s="156"/>
+      <c r="GK28" s="156"/>
+      <c r="GL28" s="156"/>
       <c r="GM28" s="101"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="139"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="139"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="139"/>
-      <c r="P29" s="139"/>
-      <c r="Q29" s="139"/>
-      <c r="R29" s="139"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="155"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="155"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="137"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="137"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
+      <c r="A30" s="158"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
       <c r="K30" s="102"/>
       <c r="L30" s="102"/>
       <c r="M30" s="102"/>
@@ -5041,16 +5051,16 @@
       <c r="R30" s="102"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="137"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
+      <c r="A31" s="158"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="158"/>
       <c r="K31" s="102"/>
       <c r="L31" s="102"/>
       <c r="M31" s="102"/>
@@ -5062,6 +5072,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -5075,28 +5107,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -5107,7 +5117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:G62"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -5123,14 +5133,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="223" t="s">
+      <c r="B1" s="222" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -5323,11 +5333,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="224" t="s">
+      <c r="E27" s="223" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="225"/>
-      <c r="G27" s="226"/>
+      <c r="F27" s="224"/>
+      <c r="G27" s="225"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5530,7 +5540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:C20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -5703,11 +5713,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="E25" sqref="E25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -5723,10 +5733,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5737,7 +5747,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>5</v>
@@ -5753,19 +5763,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="159"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>6</v>
@@ -5793,14 +5803,14 @@
       <c r="D4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="170" t="s">
+      <c r="E4" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
     </row>
     <row r="5" spans="1:10" s="25" customFormat="1" ht="11.25">
       <c r="A5" s="107">
@@ -5815,14 +5825,14 @@
       <c r="D5" s="135">
         <v>43025</v>
       </c>
-      <c r="E5" s="171" t="s">
+      <c r="E5" s="161" t="s">
         <v>199</v>
       </c>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
     </row>
     <row r="6" spans="1:10" s="124" customFormat="1" ht="12.75">
       <c r="A6" s="123">
@@ -5833,12 +5843,12 @@
       </c>
       <c r="C6" s="130"/>
       <c r="D6" s="130"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="174"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="164"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="74">
@@ -5849,12 +5859,12 @@
       </c>
       <c r="C7" s="131"/>
       <c r="D7" s="131"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="165"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="168"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="75">
@@ -5865,12 +5875,12 @@
       </c>
       <c r="C8" s="131"/>
       <c r="D8" s="132"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="171"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="76">
@@ -5881,12 +5891,12 @@
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="37"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="162"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="174"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="77">
@@ -5897,12 +5907,12 @@
       </c>
       <c r="C10" s="67"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="162"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="174"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="78">
@@ -5913,12 +5923,12 @@
       </c>
       <c r="C11" s="67"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="162"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="174"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="79">
@@ -5929,12 +5939,12 @@
       </c>
       <c r="C12" s="67"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="162"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="174"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="80">
@@ -5945,12 +5955,12 @@
       </c>
       <c r="C13" s="67"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="162"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="174"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="81">
@@ -5961,12 +5971,12 @@
       </c>
       <c r="C14" s="67"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="162"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="174"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="37">
@@ -5977,12 +5987,12 @@
       </c>
       <c r="C15" s="67"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="73">
@@ -5993,12 +6003,12 @@
       </c>
       <c r="C16" s="67"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="74">
@@ -6009,12 +6019,12 @@
       </c>
       <c r="C17" s="67"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="75">
@@ -6025,12 +6035,12 @@
       </c>
       <c r="C18" s="67"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="76">
@@ -6041,12 +6051,12 @@
       </c>
       <c r="C19" s="67"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="77">
@@ -6057,12 +6067,12 @@
       </c>
       <c r="C20" s="67"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="159"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="78">
@@ -6073,12 +6083,12 @@
       </c>
       <c r="C21" s="67"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="79">
@@ -6089,12 +6099,12 @@
       </c>
       <c r="C22" s="67"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="80">
@@ -6105,12 +6115,12 @@
       </c>
       <c r="C23" s="67"/>
       <c r="D23" s="37"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="159"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="81">
@@ -6121,12 +6131,12 @@
       </c>
       <c r="C24" s="67"/>
       <c r="D24" s="37"/>
-      <c r="E24" s="159"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="159"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="37">
@@ -6137,12 +6147,12 @@
       </c>
       <c r="C25" s="67"/>
       <c r="D25" s="37"/>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="159"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="73">
@@ -6153,12 +6163,12 @@
       </c>
       <c r="C26" s="67"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="159"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="74">
@@ -6169,12 +6179,12 @@
       </c>
       <c r="C27" s="67"/>
       <c r="D27" s="37"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="159"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="75">
@@ -6185,12 +6195,12 @@
       </c>
       <c r="C28" s="67"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="76">
@@ -6201,12 +6211,12 @@
       </c>
       <c r="C29" s="67"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="159"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="77">
@@ -6217,12 +6227,12 @@
       </c>
       <c r="C30" s="67"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="159"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="78">
@@ -6233,12 +6243,12 @@
       </c>
       <c r="C31" s="67"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="159"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="159"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="79">
@@ -6249,12 +6259,12 @@
       </c>
       <c r="C32" s="67"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="159"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="80">
@@ -6265,12 +6275,12 @@
       </c>
       <c r="C33" s="67"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="159"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="81">
@@ -6281,26 +6291,20 @@
       </c>
       <c r="C34" s="67"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="159"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="E32:J32"/>
     <mergeCell ref="E33:J33"/>
@@ -6317,17 +6321,23 @@
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"ASOFT - ERP.NET,ASOFT - ACC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"ASOFT-CRM,ASOFT - S,ASOFT - CI,ASOFT - T,ASOFT - OP,ASOFT - FA,ASOFT - WM,ASOFT - M,ASOFT - OP,ASOFT - HRM"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6343,11 +6353,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6366,10 +6376,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6382,7 +6392,7 @@
       </c>
       <c r="F1" s="34" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2025</v>
+        <v>OOF2115</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>5</v>
@@ -6400,14 +6410,14 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="159"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="34" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>4</v>
@@ -6457,7 +6467,7 @@
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
       <c r="I5" s="182" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J5" s="183"/>
     </row>
@@ -6545,7 +6555,7 @@
       <c r="G12" s="40"/>
       <c r="H12" s="42"/>
       <c r="I12" s="178" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="J12" s="179"/>
     </row>
@@ -6895,14 +6905,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6927,13 +6937,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
       <c r="F1" s="29" t="s">
         <v>1</v>
       </c>
@@ -6947,7 +6957,7 @@
       <c r="I1" s="189"/>
       <c r="J1" s="190" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2025</v>
+        <v>OOF2115</v>
       </c>
       <c r="K1" s="191"/>
       <c r="L1" s="192"/>
@@ -6967,17 +6977,17 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
       <c r="F2" s="29" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="27" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="H2" s="188" t="s">
         <v>49</v>
@@ -7066,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F5" s="109"/>
       <c r="G5" s="109"/>
@@ -7188,13 +7198,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F9" s="127" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G9" s="127" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>176</v>
@@ -7209,7 +7219,7 @@
       <c r="N9" s="127"/>
       <c r="O9" s="127"/>
       <c r="P9" s="127" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="33" customFormat="1" ht="12" customHeight="1">
@@ -7256,13 +7266,13 @@
         <v>4.3</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F11" s="109" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G11" s="113" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>176</v>
@@ -7292,13 +7302,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F12" s="109" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G12" s="113" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>176</v>
@@ -7328,13 +7338,13 @@
         <v>4.5</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F13" s="129" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G13" s="129" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>176</v>
@@ -7364,13 +7374,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F14" s="113" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G14" s="115" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H14" s="37" t="s">
         <v>176</v>
@@ -7400,19 +7410,19 @@
         <v>4.7</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F15" s="109" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G15" s="115" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H15" s="37" t="s">
         <v>176</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
@@ -7420,7 +7430,7 @@
         <v>194</v>
       </c>
       <c r="M15" s="109" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N15" s="127"/>
       <c r="O15" s="109"/>
@@ -7438,19 +7448,19 @@
         <v>4.8</v>
       </c>
       <c r="E16" s="54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F16" s="109" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G16" s="115" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H16" s="37" t="s">
         <v>176</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
@@ -7458,7 +7468,7 @@
         <v>194</v>
       </c>
       <c r="M16" s="127" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N16" s="109"/>
       <c r="O16" s="109"/>
@@ -7601,17 +7611,17 @@
     <mergeCell ref="J2:L2"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5:G7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H7">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5:G7" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H7" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I20" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L20" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H20" xr:uid="{00000000-0002-0000-0300-000004000000}">
       <formula1>"Caption,Groupbox,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7622,11 +7632,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -7666,7 +7676,7 @@
       </c>
       <c r="F1" s="87" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2025</v>
+        <v>OOF2115</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>5</v>
@@ -7692,7 +7702,7 @@
       <c r="C2" s="29"/>
       <c r="D2" s="87" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>49</v>
@@ -7912,13 +7922,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:L14 I5:I13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:L14 I5:I13" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E14" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"Format,Require,Max Length,Range,Not In List"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7934,7 +7944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -7963,7 +7973,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="103"/>
@@ -7980,7 +7990,7 @@
       </c>
       <c r="G1" s="84" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2025</v>
+        <v>OOF2115</v>
       </c>
       <c r="H1" s="85" t="s">
         <v>5</v>
@@ -8000,7 +8010,7 @@
       <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="196"/>
+      <c r="A2" s="199"/>
       <c r="B2" s="104"/>
       <c r="C2" s="122"/>
       <c r="D2" s="30" t="s">
@@ -8008,7 +8018,7 @@
       </c>
       <c r="E2" s="87" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="F2" s="85" t="s">
         <v>49</v>
@@ -8053,15 +8063,15 @@
       <c r="F4" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="169" t="s">
+      <c r="G4" s="159" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169" t="s">
+      <c r="H4" s="159"/>
+      <c r="I4" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
     </row>
     <row r="5" spans="1:13" s="33" customFormat="1" ht="11.25">
       <c r="A5" s="32">
@@ -8074,9 +8084,9 @@
       <c r="F5" s="31"/>
       <c r="G5" s="193"/>
       <c r="H5" s="194"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="199"/>
+      <c r="I5" s="195"/>
+      <c r="J5" s="196"/>
+      <c r="K5" s="197"/>
     </row>
     <row r="6" spans="1:13" s="33" customFormat="1" ht="11.25">
       <c r="A6" s="32">
@@ -8089,9 +8099,9 @@
       <c r="F6" s="31"/>
       <c r="G6" s="193"/>
       <c r="H6" s="194"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="198"/>
-      <c r="K6" s="199"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="197"/>
     </row>
     <row r="7" spans="1:13" s="33" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="32">
@@ -8104,9 +8114,9 @@
       <c r="F7" s="31"/>
       <c r="G7" s="193"/>
       <c r="H7" s="194"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="197"/>
     </row>
     <row r="8" spans="1:13" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="32">
@@ -8119,9 +8129,9 @@
       <c r="F8" s="31"/>
       <c r="G8" s="193"/>
       <c r="H8" s="194"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="199"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="197"/>
     </row>
     <row r="9" spans="1:13" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="32">
@@ -8134,9 +8144,9 @@
       <c r="F9" s="31"/>
       <c r="G9" s="193"/>
       <c r="H9" s="194"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="199"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="197"/>
     </row>
     <row r="10" spans="1:13" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="32">
@@ -8149,9 +8159,9 @@
       <c r="F10" s="31"/>
       <c r="G10" s="193"/>
       <c r="H10" s="194"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="199"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="196"/>
+      <c r="K10" s="197"/>
     </row>
     <row r="11" spans="1:13" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="32">
@@ -8164,9 +8174,9 @@
       <c r="F11" s="31"/>
       <c r="G11" s="193"/>
       <c r="H11" s="194"/>
-      <c r="I11" s="197"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="199"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="197"/>
     </row>
     <row r="12" spans="1:13" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="32">
@@ -8179,9 +8189,9 @@
       <c r="F12" s="31"/>
       <c r="G12" s="193"/>
       <c r="H12" s="194"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="199"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="197"/>
     </row>
     <row r="13" spans="1:13" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="32">
@@ -8194,9 +8204,9 @@
       <c r="F13" s="31"/>
       <c r="G13" s="193"/>
       <c r="H13" s="194"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="198"/>
-      <c r="K13" s="199"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="197"/>
     </row>
     <row r="14" spans="1:13" s="33" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="32">
@@ -8209,29 +8219,13 @@
       <c r="F14" s="31"/>
       <c r="G14" s="193"/>
       <c r="H14" s="194"/>
-      <c r="I14" s="197"/>
-      <c r="J14" s="198"/>
-      <c r="K14" s="199"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="197"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="23">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
@@ -8239,9 +8233,25 @@
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="G12:H12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F14" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Text,Number,Boolean,Datatime,Object,Structure"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8253,11 +8263,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S1048239"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -8283,14 +8293,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
       <c r="G1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8304,7 +8314,7 @@
       </c>
       <c r="K1" s="48" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2025</v>
+        <v>OOF2115</v>
       </c>
       <c r="L1" s="26" t="s">
         <v>5</v>
@@ -8326,18 +8336,18 @@
       <c r="S1" s="47"/>
     </row>
     <row r="2" spans="1:19" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
       <c r="G2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="200" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="I2" s="200"/>
       <c r="J2" s="26" t="s">
@@ -8465,10 +8475,10 @@
       </c>
       <c r="C6" s="105"/>
       <c r="D6" s="136" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E6" s="126" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F6" s="205" t="s">
         <v>181</v>
@@ -8480,16 +8490,16 @@
         <v>188</v>
       </c>
       <c r="I6" s="209" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J6" s="210"/>
       <c r="K6" s="210"/>
       <c r="L6" s="211"/>
-      <c r="M6" s="203" t="s">
-        <v>244</v>
-      </c>
-      <c r="N6" s="203" t="s">
-        <v>244</v>
+      <c r="M6" s="226" t="s">
+        <v>242</v>
+      </c>
+      <c r="N6" s="226" t="s">
+        <v>242</v>
       </c>
       <c r="O6" s="201" t="s">
         <v>195</v>
@@ -8497,7 +8507,7 @@
       <c r="P6" s="201" t="s">
         <v>178</v>
       </c>
-      <c r="Q6" s="219"/>
+      <c r="Q6" s="218"/>
       <c r="R6" s="58"/>
       <c r="S6" s="58"/>
     </row>
@@ -8510,10 +8520,10 @@
       </c>
       <c r="C7" s="105"/>
       <c r="D7" s="136" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F7" s="204"/>
       <c r="G7" s="204"/>
@@ -8522,11 +8532,11 @@
       <c r="J7" s="213"/>
       <c r="K7" s="213"/>
       <c r="L7" s="214"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
+      <c r="M7" s="227"/>
+      <c r="N7" s="227"/>
       <c r="O7" s="202"/>
       <c r="P7" s="202"/>
-      <c r="Q7" s="220"/>
+      <c r="Q7" s="219"/>
       <c r="R7" s="58"/>
       <c r="S7" s="58"/>
     </row>
@@ -8539,10 +8549,10 @@
       </c>
       <c r="C8" s="105"/>
       <c r="D8" s="136" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E8" s="126" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F8" s="204"/>
       <c r="G8" s="204"/>
@@ -8551,11 +8561,11 @@
       <c r="J8" s="213"/>
       <c r="K8" s="213"/>
       <c r="L8" s="214"/>
-      <c r="M8" s="218"/>
-      <c r="N8" s="218"/>
+      <c r="M8" s="227"/>
+      <c r="N8" s="227"/>
       <c r="O8" s="202"/>
       <c r="P8" s="202"/>
-      <c r="Q8" s="220"/>
+      <c r="Q8" s="219"/>
       <c r="R8" s="58"/>
       <c r="S8" s="58"/>
     </row>
@@ -8568,10 +8578,10 @@
       </c>
       <c r="C9" s="105"/>
       <c r="D9" s="136" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E9" s="126" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F9" s="204"/>
       <c r="G9" s="204"/>
@@ -8580,11 +8590,11 @@
       <c r="J9" s="213"/>
       <c r="K9" s="213"/>
       <c r="L9" s="214"/>
-      <c r="M9" s="218"/>
-      <c r="N9" s="218"/>
+      <c r="M9" s="227"/>
+      <c r="N9" s="227"/>
       <c r="O9" s="202"/>
       <c r="P9" s="202"/>
-      <c r="Q9" s="220"/>
+      <c r="Q9" s="219"/>
       <c r="R9" s="58"/>
       <c r="S9" s="58"/>
     </row>
@@ -8597,10 +8607,10 @@
       </c>
       <c r="C10" s="105"/>
       <c r="D10" s="128" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E10" s="126" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F10" s="204"/>
       <c r="G10" s="204"/>
@@ -8609,11 +8619,11 @@
       <c r="J10" s="213"/>
       <c r="K10" s="213"/>
       <c r="L10" s="214"/>
-      <c r="M10" s="218"/>
-      <c r="N10" s="218"/>
+      <c r="M10" s="227"/>
+      <c r="N10" s="227"/>
       <c r="O10" s="202"/>
       <c r="P10" s="202"/>
-      <c r="Q10" s="220"/>
+      <c r="Q10" s="219"/>
       <c r="R10" s="58"/>
       <c r="S10" s="58"/>
     </row>
@@ -8644,14 +8654,14 @@
     <mergeCell ref="Q6:Q10"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="O1048239:O1048576 O5:O6"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F6">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="O1048239:O1048576 O5:O6" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F6" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G6" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P6" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8667,11 +8677,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -8687,10 +8697,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8703,7 +8713,7 @@
       </c>
       <c r="F1" s="34" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2025</v>
+        <v>OOF2115</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>5</v>
@@ -8721,14 +8731,14 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="159"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="34" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>4</v>
@@ -8782,7 +8792,7 @@
       <c r="A6" s="39"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
@@ -8874,7 +8884,7 @@
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="B13" s="68"/>
       <c r="C13" s="110" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -8886,7 +8896,7 @@
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="C14" s="110" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
@@ -9028,7 +9038,7 @@
       <c r="A26" s="64"/>
       <c r="B26" s="40"/>
       <c r="C26" s="40" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D26" s="40"/>
       <c r="E26" s="40"/>
@@ -9097,7 +9107,7 @@
       <c r="B31" s="40"/>
       <c r="C31" s="71"/>
       <c r="D31" s="71" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E31" s="40"/>
       <c r="F31" s="40"/>
@@ -9125,7 +9135,7 @@
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
       <c r="D33" s="71" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40"/>
@@ -9137,28 +9147,28 @@
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="64"/>
       <c r="B34" s="40"/>
-      <c r="C34" s="221" t="s">
+      <c r="C34" s="220" t="s">
         <v>202</v>
       </c>
-      <c r="D34" s="221"/>
-      <c r="E34" s="221"/>
-      <c r="F34" s="221"/>
-      <c r="G34" s="221"/>
-      <c r="H34" s="221"/>
-      <c r="I34" s="221"/>
-      <c r="J34" s="222"/>
+      <c r="D34" s="220"/>
+      <c r="E34" s="220"/>
+      <c r="F34" s="220"/>
+      <c r="G34" s="220"/>
+      <c r="H34" s="220"/>
+      <c r="I34" s="220"/>
+      <c r="J34" s="221"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="64"/>
       <c r="B35" s="40"/>
-      <c r="C35" s="221"/>
-      <c r="D35" s="221"/>
-      <c r="E35" s="221"/>
-      <c r="F35" s="221"/>
-      <c r="G35" s="221"/>
-      <c r="H35" s="221"/>
-      <c r="I35" s="221"/>
-      <c r="J35" s="222"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="220"/>
+      <c r="E35" s="220"/>
+      <c r="F35" s="220"/>
+      <c r="G35" s="220"/>
+      <c r="H35" s="220"/>
+      <c r="I35" s="220"/>
+      <c r="J35" s="221"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="64"/>
@@ -9943,7 +9953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -9963,10 +9973,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
@@ -9979,7 +9989,7 @@
       </c>
       <c r="F1" s="34" t="str">
         <f>'Update History'!F1</f>
-        <v>TMF2025</v>
+        <v>OOF2115</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>5</v>
@@ -9997,14 +10007,14 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="159"/>
       <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="34" t="str">
         <f>'Update History'!D2</f>
-        <v>ASOFT-TM</v>
+        <v>ASOFT-OO</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>4</v>
